--- a/documents/project management/Test/Durchlauf 2/Abnahmetest_Go Happy_gesamt.xlsx
+++ b/documents/project management/Test/Durchlauf 2/Abnahmetest_Go Happy_gesamt.xlsx
@@ -9,8 +9,8 @@
   <sheets>
     <sheet name="Abnahmetest" sheetId="1" r:id="rId1"/>
     <sheet name="Backend" sheetId="2" r:id="rId2"/>
-    <sheet name="Frontend" sheetId="3" r:id="rId3"/>
-    <sheet name="Design" sheetId="4" r:id="rId4"/>
+    <sheet name="Frontend" sheetId="4" r:id="rId3"/>
+    <sheet name="Design" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="90">
   <si>
     <t>ID</t>
   </si>
@@ -238,6 +238,60 @@
   </si>
   <si>
     <t>Es erscheint ein Pop Up fenster in welches man einen Text zur Fehlermeldung ientragen kann. Dieser kann anschließend abgeschickt oder aber auch verworfen werden. Es folgt eine Bestätigung.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobald die Einstellungen vorgenommen wurden und es auf den Zurückpfeil geklickt wurde, tauchen bereits andere Bars in der "Auswahlübersicht" auf. Beim Aktualisieren wird dann letztendlich eine neue Route generiert. </t>
+  </si>
+  <si>
+    <t>Wird wohl bereits aktualisiert, nach dem man auf den Zurückpfeil geklickt hat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.o. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bereits nach dem Klick auf den Zurückpfeil, tauchen Bars in der "Auswahlübersicht" auf. Nach dem Klick auf den Aktualisierungsbutton, wird letztendlich eine neue Route erstellt. </t>
+  </si>
+  <si>
+    <t>Hat noch einen Schönheitsfehler. Die Fenster mit dem weißen Hintergrund sind wohl nicht dynamisch und deswegen u.U. zu klein für die Informationen</t>
+  </si>
+  <si>
+    <t>Scheint wohl zu funktionieren. Bisher aber nur eine Route drin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link wird angezeigt. Es erfolgt jedoch kein Kopieren des Linkes in die Zwischenablage nach Betätigen des Kopierbuttons. </t>
+  </si>
+  <si>
+    <t>Es öffnet sich ein Pop-Up, in dem das Löschen bestätigt werden muss. Wird der Vorgang jedoch abgebrochen gelangt der Anwender wieder zurück zu der "Offline Routen Ansicht".</t>
+  </si>
+  <si>
+    <t>Nach Routen fehlt ein Komma</t>
+  </si>
+  <si>
+    <t>Es erscheint ein Pop Up fenster in welches man einen Text zur Fehlermeldung eintragen kann. Dieser kann anschließend abgeschickt oder aber auch verworfen werden. Es folgt eine Bestätigung.</t>
+  </si>
+  <si>
+    <t>Man kann eine Bar ohne Begründung melden. Evtl. nicht ganz sinnvoll</t>
+  </si>
+  <si>
+    <t>Ich konnte den Fehlerfall nicht nachstellen.</t>
+  </si>
+  <si>
+    <t>Es wird mir jeden Wochentag diegleiche Route angezeigt.</t>
+  </si>
+  <si>
+    <t>Es wird nur die Freitagsroute angezeigt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umlaute können (teilw.) nicht richtig angezeigt werden. Bsp: beim Sausalitos "Jumbo Cocktail f??r 5???" </t>
+  </si>
+  <si>
+    <t>Über Button "kopieren" wird Link nicht in Zwischenspeicher kopiert. Manuelles kopieren des Llinks aus dem Textfeld ist möglich.</t>
+  </si>
+  <si>
+    <t>Ergebnis wird morgen nachgetragen</t>
+  </si>
+  <si>
+    <t>Abnahmetest durch das Team "Design"</t>
   </si>
 </sst>
 </file>
@@ -623,9 +677,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -642,6 +693,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -802,6 +856,135 @@
   </cellStyles>
   <dxfs count="34">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -900,6 +1083,123 @@
         <left style="thin">
           <color rgb="FF95B3D7"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF95B3D7"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF95B3D7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDCE6F1"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF95B3D7"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF95B3D7"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF95B3D7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDCE6F1"/>
+          <bgColor rgb="FFC4D79B"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right/>
         <top style="thin">
           <color rgb="FF95B3D7"/>
@@ -1022,125 +1322,10 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1151,13 +1336,6 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -1225,83 +1403,7 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDCE6F1"/>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF95B3D7"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF95B3D7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1315,37 +1417,14 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDCE6F1"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
-        <right style="thin">
-          <color rgb="FF95B3D7"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF95B3D7"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF95B3D7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
+        <right/>
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
@@ -1355,15 +1434,8 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1373,45 +1445,27 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="0"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
@@ -1435,56 +1489,68 @@
     <tableColumn id="1" name="ID" dataDxfId="33"/>
     <tableColumn id="2" name="Testszenario" dataDxfId="32"/>
     <tableColumn id="3" name="Erwartungen" dataDxfId="31"/>
-    <tableColumn id="4" name="Ergebnis Backend" dataDxfId="30"/>
-    <tableColumn id="5" name="Kommentar Backend" dataDxfId="29"/>
-    <tableColumn id="7" name="Ergebnis Frontend" dataDxfId="28"/>
-    <tableColumn id="8" name="Kommentar Frontend" dataDxfId="27"/>
-    <tableColumn id="9" name="Ergebnis Design" dataDxfId="26"/>
-    <tableColumn id="10" name="Kommentar Design" dataDxfId="25"/>
-    <tableColumn id="11" name="Ergebnis Überarbeitung" dataDxfId="24"/>
-    <tableColumn id="12" name="Kommentar Überarbeitung" dataDxfId="23"/>
+    <tableColumn id="4" name="Ergebnis Backend" dataDxfId="5">
+      <calculatedColumnFormula>Tabelle13[[#This Row],[Ergebnis Backend]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Kommentar Backend" dataDxfId="4">
+      <calculatedColumnFormula>Tabelle13[[#This Row],[Kommentar Backend]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Ergebnis Frontend" dataDxfId="3">
+      <calculatedColumnFormula>Tabelle147[[#This Row],[Ergebnis Frontend]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="Kommentar Frontend" dataDxfId="2">
+      <calculatedColumnFormula>Tabelle147[[#This Row],[Kommentar Frontend]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="Ergebnis Design" dataDxfId="1">
+      <calculatedColumnFormula>Tabelle146[[#This Row],[Ergebnis Design]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="Kommentar Design" dataDxfId="0">
+      <calculatedColumnFormula>Tabelle146[[#This Row],[Kommentar Design]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="Ergebnis Überarbeitung" dataDxfId="30"/>
+    <tableColumn id="12" name="Kommentar Überarbeitung" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:E33" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle13" displayName="Tabelle13" ref="A2:E33" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="22" tableBorderDxfId="23">
   <autoFilter ref="A2:E33"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID" dataDxfId="8"/>
-    <tableColumn id="2" name="Testszenario" dataDxfId="7"/>
-    <tableColumn id="3" name="Erwartungen" dataDxfId="6"/>
+    <tableColumn id="1" name="ID" dataDxfId="28"/>
+    <tableColumn id="2" name="Testszenario" dataDxfId="27"/>
+    <tableColumn id="3" name="Erwartungen" dataDxfId="26"/>
     <tableColumn id="4" name="Ergebnis Backend"/>
-    <tableColumn id="5" name="Kommentar Backend" dataDxfId="19"/>
+    <tableColumn id="5" name="Kommentar Backend" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle14" displayName="Tabelle14" ref="A2:E33" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle147" displayName="Tabelle147" ref="A2:E33" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
   <autoFilter ref="A2:E33"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID" dataDxfId="5"/>
-    <tableColumn id="2" name="Testszenario" dataDxfId="4"/>
-    <tableColumn id="3" name="Erwartungen" dataDxfId="3"/>
-    <tableColumn id="4" name="Ergebnis Backend" dataDxfId="15"/>
-    <tableColumn id="5" name="Kommentar Backend" dataDxfId="14"/>
+    <tableColumn id="1" name="ID" dataDxfId="21"/>
+    <tableColumn id="2" name="Testszenario" dataDxfId="20"/>
+    <tableColumn id="3" name="Erwartungen" dataDxfId="19"/>
+    <tableColumn id="4" name="Ergebnis Frontend" dataDxfId="18"/>
+    <tableColumn id="5" name="Kommentar Frontend" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle146" displayName="Tabelle146" ref="A2:E33" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle146" displayName="Tabelle146" ref="A2:E33" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
   <autoFilter ref="A2:E33"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID" dataDxfId="2"/>
-    <tableColumn id="2" name="Testszenario" dataDxfId="1"/>
-    <tableColumn id="3" name="Erwartungen" dataDxfId="0"/>
-    <tableColumn id="4" name="Ergebnis Backend" dataDxfId="10"/>
-    <tableColumn id="5" name="Kommentar Backend" dataDxfId="9"/>
+    <tableColumn id="1" name="ID" dataDxfId="13"/>
+    <tableColumn id="2" name="Testszenario" dataDxfId="12"/>
+    <tableColumn id="3" name="Erwartungen" dataDxfId="11"/>
+    <tableColumn id="4" name="Ergebnis Design" dataDxfId="10"/>
+    <tableColumn id="5" name="Kommentar Design" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1814,8 +1880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1824,11 +1890,11 @@
     <col min="2" max="2" width="66.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.83203125" customWidth="1"/>
     <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" customWidth="1"/>
     <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1883,12 +1949,30 @@
       <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="D3" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v>0</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
@@ -1899,19 +1983,37 @@
       <c r="B4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="D4" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v>Ich konnte den Fehlerfall nicht nachstellen.</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="45">
+    <row r="5" spans="1:11" ht="105">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -1921,12 +2023,30 @@
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="D5" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v xml:space="preserve">Sobald die Einstellungen vorgenommen wurden und es auf den Zurückpfeil geklickt wurde, tauchen bereits andere Bars in der "Auswahlübersicht" auf. Beim Aktualisieren wird dann letztendlich eine neue Route generiert. </v>
+      </c>
+      <c r="H5" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v>0</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
@@ -1940,12 +2060,30 @@
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="D6" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v>Wird wohl bereits aktualisiert, nach dem man auf den Zurückpfeil geklickt hat.</v>
+      </c>
+      <c r="H6" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v>Es wird mir jeden Wochentag diegleiche Route angezeigt.</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
@@ -1959,16 +2097,34 @@
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="D7" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v xml:space="preserve">s.o. </v>
+      </c>
+      <c r="H7" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v>0</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="45">
+    <row r="8" spans="1:11" ht="90">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -1978,12 +2134,30 @@
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="D8" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v xml:space="preserve">Bereits nach dem Klick auf den Zurückpfeil, tauchen Bars in der "Auswahlübersicht" auf. Nach dem Klick auf den Aktualisierungsbutton, wird letztendlich eine neue Route erstellt. </v>
+      </c>
+      <c r="H8" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v>0</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
@@ -1997,12 +2171,30 @@
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="D9" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v>Wird wohl bereits aktualisiert, nach dem man auf den Zurückpfeil geklickt hat.</v>
+      </c>
+      <c r="H9" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v>0</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
@@ -2016,16 +2208,34 @@
       <c r="C10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="D10" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v>0</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="45">
+    <row r="11" spans="1:11" ht="75">
       <c r="A11" s="13">
         <v>9</v>
       </c>
@@ -2035,12 +2245,30 @@
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="D11" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v>Hat noch einen Schönheitsfehler. Die Fenster mit dem weißen Hintergrund sind wohl nicht dynamisch und deswegen u.U. zu klein für die Informationen</v>
+      </c>
+      <c r="H11" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v>0</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
@@ -2054,16 +2282,34 @@
       <c r="C12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="D12" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v>0</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" ht="30">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -2073,12 +2319,30 @@
       <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="D13" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v>Scheint wohl zu funktionieren. Bisher aber nur eine Route drin.</v>
+      </c>
+      <c r="H13" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v>Es wird nur die Freitagsroute angezeigt.</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
@@ -2092,16 +2356,34 @@
       <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="D14" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v>0</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="30">
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="45">
       <c r="A15" s="13">
         <v>13</v>
       </c>
@@ -2110,6 +2392,30 @@
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="D15" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v xml:space="preserve">Umlaute können (teilw.) nicht richtig angezeigt werden. Bsp: beim Sausalitos "Jumbo Cocktail f??r 5???" </v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30">
@@ -2122,16 +2428,34 @@
       <c r="C16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="D16" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v>0</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="45">
+    <row r="17" spans="1:11" ht="60">
       <c r="A17" s="13">
         <v>15</v>
       </c>
@@ -2141,12 +2465,30 @@
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="D17" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v xml:space="preserve">Link wird angezeigt. Es erfolgt jedoch kein Kopieren des Linkes in die Zwischenablage nach Betätigen des Kopierbuttons. </v>
+      </c>
+      <c r="H17" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v>Über Button "kopieren" wird Link nicht in Zwischenspeicher kopiert. Manuelles kopieren des Llinks aus dem Textfeld ist möglich.</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
@@ -2160,12 +2502,30 @@
       <c r="C18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="D18" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v>0</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
@@ -2179,12 +2539,30 @@
       <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="D19" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v>0</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
@@ -2198,12 +2576,30 @@
       <c r="C20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="D20" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v>0</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
@@ -2217,12 +2613,30 @@
       <c r="C21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="D21" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v>0</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
@@ -2236,12 +2650,30 @@
       <c r="C22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="D22" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v>0</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
@@ -2255,12 +2687,30 @@
       <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="D23" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v>0</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
@@ -2274,12 +2724,30 @@
       <c r="C24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="D24" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v>Nach Routen fehlt ein Komma</v>
+      </c>
+      <c r="H24" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v>0</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
@@ -2293,12 +2761,30 @@
       <c r="C25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="D25" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v>0</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
@@ -2312,12 +2798,30 @@
       <c r="C26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="D26" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v>0</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
@@ -2331,12 +2835,30 @@
       <c r="C27" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="D27" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v>Man kann eine Bar ohne Begründung melden. Evtl. nicht ganz sinnvoll</v>
+      </c>
+      <c r="H27" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v>0</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
@@ -2350,12 +2872,30 @@
       <c r="C28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="D28" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v>0</v>
+      </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
@@ -2369,12 +2909,30 @@
       <c r="C29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="D29" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v>0</v>
+      </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
@@ -2388,12 +2946,30 @@
       <c r="C30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="D30" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v>0</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
@@ -2407,12 +2983,30 @@
       <c r="C31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="D31" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v>0</v>
+      </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
@@ -2426,12 +3020,30 @@
       <c r="C32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="D32" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v>0</v>
+      </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
@@ -2445,17 +3057,45 @@
       <c r="C33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="D33" s="1">
+        <f>Tabelle13[[#This Row],[Ergebnis Backend]]</f>
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <f>Tabelle13[[#This Row],[Kommentar Backend]]</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <f>Tabelle147[[#This Row],[Ergebnis Frontend]]</f>
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <f>Tabelle147[[#This Row],[Kommentar Frontend]]</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="1" t="str">
+        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
+        <v>Ergebnis wird morgen nachgetragen</v>
+      </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J3:J33 D3:D33 F3:F33 H3:H33">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <color theme="6" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D33 F3:F33 H3:H33">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2482,8 +3122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2527,8 +3167,10 @@
       <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="D3" s="23">
+        <v>1</v>
+      </c>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" ht="45">
       <c r="A4" s="13">
@@ -2537,11 +3179,13 @@
       <c r="B4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="D4" s="25">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" ht="60">
       <c r="A5" s="13">
@@ -2553,8 +3197,10 @@
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="D5" s="23">
+        <v>1</v>
+      </c>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5" ht="60">
       <c r="A6" s="13">
@@ -2566,8 +3212,10 @@
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="D6" s="25">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" ht="60">
       <c r="A7" s="13">
@@ -2579,8 +3227,10 @@
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="D7" s="23">
+        <v>1</v>
+      </c>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:5" ht="60">
       <c r="A8" s="13">
@@ -2592,8 +3242,10 @@
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="D8" s="25">
+        <v>1</v>
+      </c>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:5" ht="60">
       <c r="A9" s="13">
@@ -2605,8 +3257,10 @@
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="D9" s="23">
+        <v>1</v>
+      </c>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:5" ht="30">
       <c r="A10" s="13">
@@ -2618,8 +3272,10 @@
       <c r="C10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="D10" s="25">
+        <v>1</v>
+      </c>
+      <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:5" ht="30">
       <c r="A11" s="13">
@@ -2631,8 +3287,10 @@
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="D11" s="23">
+        <v>1</v>
+      </c>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:5" ht="30">
       <c r="A12" s="13">
@@ -2644,8 +3302,10 @@
       <c r="C12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="D12" s="25">
+        <v>1</v>
+      </c>
+      <c r="E12" s="25"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="13">
@@ -2657,8 +3317,10 @@
       <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="D13" s="23">
+        <v>1</v>
+      </c>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:5" ht="30">
       <c r="A14" s="13">
@@ -2670,8 +3332,10 @@
       <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="D14" s="25">
+        <v>1</v>
+      </c>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:5" ht="30">
       <c r="A15" s="13">
@@ -2683,8 +3347,10 @@
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="D15" s="23">
+        <v>1</v>
+      </c>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:5" ht="30">
       <c r="A16" s="13">
@@ -2696,8 +3362,10 @@
       <c r="C16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
+      <c r="D16" s="25">
+        <v>1</v>
+      </c>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5" ht="30">
       <c r="A17" s="13">
@@ -2709,8 +3377,10 @@
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="D17" s="23">
+        <v>1</v>
+      </c>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="1:5" ht="30">
       <c r="A18" s="13">
@@ -2722,8 +3392,10 @@
       <c r="C18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="D18" s="25">
+        <v>1</v>
+      </c>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:5" ht="45">
       <c r="A19" s="13">
@@ -2735,8 +3407,10 @@
       <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+      <c r="D19" s="23">
+        <v>1</v>
+      </c>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="1:5" ht="45">
       <c r="A20" s="13">
@@ -2748,8 +3422,10 @@
       <c r="C20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="D20" s="25">
+        <v>1</v>
+      </c>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5" ht="30">
       <c r="A21" s="13">
@@ -2761,8 +3437,10 @@
       <c r="C21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="D21" s="23">
+        <v>1</v>
+      </c>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" spans="1:5" ht="30">
       <c r="A22" s="13">
@@ -2774,8 +3452,10 @@
       <c r="C22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="D22" s="25">
+        <v>1</v>
+      </c>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:5" ht="45">
       <c r="A23" s="13">
@@ -2787,8 +3467,10 @@
       <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
+      <c r="D23" s="23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="23"/>
     </row>
     <row r="24" spans="1:5" ht="45">
       <c r="A24" s="13">
@@ -2800,8 +3482,10 @@
       <c r="C24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
+      <c r="D24" s="25">
+        <v>1</v>
+      </c>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:5" ht="30">
       <c r="A25" s="13">
@@ -2813,8 +3497,10 @@
       <c r="C25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
+      <c r="D25" s="23">
+        <v>1</v>
+      </c>
+      <c r="E25" s="23"/>
     </row>
     <row r="26" spans="1:5" ht="30">
       <c r="A26" s="13">
@@ -2826,8 +3512,10 @@
       <c r="C26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
+      <c r="D26" s="25">
+        <v>1</v>
+      </c>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5" ht="45">
       <c r="A27" s="13">
@@ -2839,8 +3527,10 @@
       <c r="C27" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
+      <c r="D27" s="23">
+        <v>1</v>
+      </c>
+      <c r="E27" s="23"/>
     </row>
     <row r="28" spans="1:5" ht="30">
       <c r="A28" s="13">
@@ -2852,8 +3542,10 @@
       <c r="C28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
+      <c r="D28" s="25">
+        <v>1</v>
+      </c>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:5" ht="45">
       <c r="A29" s="13">
@@ -2865,8 +3557,10 @@
       <c r="C29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
+      <c r="D29" s="23">
+        <v>1</v>
+      </c>
+      <c r="E29" s="23"/>
     </row>
     <row r="30" spans="1:5" ht="30">
       <c r="A30" s="13">
@@ -2878,8 +3572,10 @@
       <c r="C30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="D30" s="25">
+        <v>1</v>
+      </c>
+      <c r="E30" s="25"/>
     </row>
     <row r="31" spans="1:5" ht="30">
       <c r="A31" s="13">
@@ -2891,8 +3587,10 @@
       <c r="C31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
+      <c r="D31" s="23">
+        <v>1</v>
+      </c>
+      <c r="E31" s="23"/>
     </row>
     <row r="32" spans="1:5" ht="30">
       <c r="A32" s="13">
@@ -2904,8 +3602,10 @@
       <c r="C32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
+      <c r="D32" s="25">
+        <v>1</v>
+      </c>
+      <c r="E32" s="25"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="13">
@@ -2917,8 +3617,10 @@
       <c r="C33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
+      <c r="D33" s="23">
+        <v>1</v>
+      </c>
+      <c r="E33" s="23"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:E33">
@@ -2949,14 +3651,14 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="75.1640625" customWidth="1"/>
-    <col min="3" max="3" width="75.5" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="63" customWidth="1"/>
+    <col min="3" max="3" width="74.6640625" customWidth="1"/>
     <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2977,10 +3679,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
@@ -2993,8 +3695,10 @@
       <c r="C3" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="24"/>
+      <c r="D3" s="24">
+        <v>1</v>
+      </c>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" ht="45">
       <c r="A4" s="18">
@@ -3003,13 +3707,15 @@
       <c r="B4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-    </row>
-    <row r="5" spans="1:5" ht="45">
+      <c r="D4" s="24">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" spans="1:5" ht="150">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -3019,10 +3725,14 @@
       <c r="C5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="24"/>
-    </row>
-    <row r="6" spans="1:5" ht="45">
+      <c r="D5" s="24">
+        <v>1</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -3032,10 +3742,14 @@
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-    </row>
-    <row r="7" spans="1:5" ht="45">
+      <c r="D6" s="24">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -3045,10 +3759,14 @@
       <c r="C7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" spans="1:5" ht="45">
+      <c r="D7" s="24">
+        <v>1</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="120">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -3058,10 +3776,14 @@
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-    </row>
-    <row r="9" spans="1:5" ht="45">
+      <c r="D8" s="24">
+        <v>1</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -3071,10 +3793,14 @@
       <c r="C9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="24"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="D9" s="24">
+        <v>1</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30">
       <c r="A10" s="18">
         <v>8</v>
       </c>
@@ -3084,10 +3810,12 @@
       <c r="C10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-    </row>
-    <row r="11" spans="1:5" ht="30">
+      <c r="D10" s="24">
+        <v>1</v>
+      </c>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="1:5" ht="105">
       <c r="A11" s="16">
         <v>9</v>
       </c>
@@ -3097,10 +3825,14 @@
       <c r="C11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="24"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="D11" s="24">
+        <v>1</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30">
       <c r="A12" s="18">
         <v>10</v>
       </c>
@@ -3110,10 +3842,12 @@
       <c r="C12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="D12" s="24">
+        <v>1</v>
+      </c>
+      <c r="E12" s="25"/>
+    </row>
+    <row r="13" spans="1:5" ht="60">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -3123,8 +3857,12 @@
       <c r="C13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="24"/>
+      <c r="D13" s="24">
+        <v>0</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="30">
       <c r="A14" s="18">
@@ -3136,8 +3874,10 @@
       <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="D14" s="24">
+        <v>1</v>
+      </c>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:5" ht="30">
       <c r="A15" s="16">
@@ -3149,8 +3889,10 @@
       <c r="C15" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="24"/>
+      <c r="D15" s="24">
+        <v>1</v>
+      </c>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:5" ht="30">
       <c r="A16" s="18">
@@ -3162,10 +3904,12 @@
       <c r="C16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-    </row>
-    <row r="17" spans="1:5" ht="30">
+      <c r="D16" s="24">
+        <v>1</v>
+      </c>
+      <c r="E16" s="25"/>
+    </row>
+    <row r="17" spans="1:5" ht="90">
       <c r="A17" s="16">
         <v>15</v>
       </c>
@@ -3175,8 +3919,12 @@
       <c r="C17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="24"/>
+      <c r="D17" s="24">
+        <v>0</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="30">
       <c r="A18" s="18">
@@ -3188,10 +3936,12 @@
       <c r="C18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-    </row>
-    <row r="19" spans="1:5" ht="30">
+      <c r="D18" s="24">
+        <v>1</v>
+      </c>
+      <c r="E18" s="25"/>
+    </row>
+    <row r="19" spans="1:5" ht="45">
       <c r="A19" s="16">
         <v>17</v>
       </c>
@@ -3201,8 +3951,10 @@
       <c r="C19" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="24"/>
+      <c r="D19" s="24">
+        <v>1</v>
+      </c>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="1:5" ht="45">
       <c r="A20" s="18">
@@ -3214,8 +3966,10 @@
       <c r="C20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
+      <c r="D20" s="24">
+        <v>1</v>
+      </c>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5" ht="30">
       <c r="A21" s="16">
@@ -3227,10 +3981,12 @@
       <c r="C21" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="24"/>
-    </row>
-    <row r="22" spans="1:5" ht="30">
+      <c r="D21" s="24">
+        <v>1</v>
+      </c>
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" spans="1:5" ht="45">
       <c r="A22" s="18">
         <v>20</v>
       </c>
@@ -3240,10 +3996,12 @@
       <c r="C22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-    </row>
-    <row r="23" spans="1:5" ht="30">
+      <c r="D22" s="24">
+        <v>1</v>
+      </c>
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" spans="1:5" ht="45">
       <c r="A23" s="16">
         <v>21</v>
       </c>
@@ -3251,10 +4009,12 @@
         <v>38</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="24"/>
+        <v>79</v>
+      </c>
+      <c r="D23" s="24">
+        <v>1</v>
+      </c>
+      <c r="E23" s="23"/>
     </row>
     <row r="24" spans="1:5" ht="45">
       <c r="A24" s="18">
@@ -3266,8 +4026,12 @@
       <c r="C24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
+      <c r="D24" s="24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="30">
       <c r="A25" s="16">
@@ -3279,8 +4043,10 @@
       <c r="C25" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="24"/>
+      <c r="D25" s="24">
+        <v>1</v>
+      </c>
+      <c r="E25" s="23"/>
     </row>
     <row r="26" spans="1:5" ht="30">
       <c r="A26" s="18">
@@ -3292,8 +4058,10 @@
       <c r="C26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
+      <c r="D26" s="24">
+        <v>1</v>
+      </c>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5" ht="45">
       <c r="A27" s="16">
@@ -3303,10 +4071,14 @@
         <v>69</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="24"/>
+        <v>81</v>
+      </c>
+      <c r="D27" s="24">
+        <v>1</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="30">
       <c r="A28" s="18">
@@ -3318,8 +4090,10 @@
       <c r="C28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
+      <c r="D28" s="24">
+        <v>1</v>
+      </c>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:5" ht="45">
       <c r="A29" s="16">
@@ -3331,8 +4105,10 @@
       <c r="C29" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="24"/>
+      <c r="D29" s="24">
+        <v>1</v>
+      </c>
+      <c r="E29" s="23"/>
     </row>
     <row r="30" spans="1:5" ht="30">
       <c r="A30" s="18">
@@ -3344,8 +4120,10 @@
       <c r="C30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
+      <c r="D30" s="24">
+        <v>1</v>
+      </c>
+      <c r="E30" s="25"/>
     </row>
     <row r="31" spans="1:5" ht="30">
       <c r="A31" s="16">
@@ -3357,8 +4135,10 @@
       <c r="C31" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="24"/>
+      <c r="D31" s="24">
+        <v>1</v>
+      </c>
+      <c r="E31" s="23"/>
     </row>
     <row r="32" spans="1:5" ht="30">
       <c r="A32" s="18">
@@ -3370,8 +4150,10 @@
       <c r="C32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26"/>
+      <c r="D32" s="24">
+        <v>1</v>
+      </c>
+      <c r="E32" s="25"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="16">
@@ -3383,11 +4165,13 @@
       <c r="C33" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="24"/>
+      <c r="D33" s="24">
+        <v>1</v>
+      </c>
+      <c r="E33" s="23"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:E33">
+  <conditionalFormatting sqref="D3:E8 D9 D10:E33">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3414,22 +4198,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="63" customWidth="1"/>
-    <col min="3" max="3" width="74.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="75.1640625" customWidth="1"/>
+    <col min="3" max="3" width="75.5" customWidth="1"/>
     <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3443,10 +4227,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
@@ -3459,7 +4243,9 @@
       <c r="C3" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
       <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" ht="45">
@@ -3469,13 +4255,15 @@
       <c r="B4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="20"/>
-    </row>
-    <row r="5" spans="1:5" ht="60">
+      <c r="E4" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -3485,10 +4273,12 @@
       <c r="C5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="1:5" ht="60">
+    <row r="6" spans="1:5" ht="45">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -3498,10 +4288,14 @@
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:5" ht="60">
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -3511,10 +4305,12 @@
       <c r="C7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="60">
+    <row r="8" spans="1:5" ht="45">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -3524,10 +4320,12 @@
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" spans="1:5" ht="60">
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" spans="1:5" ht="45">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -3537,10 +4335,12 @@
       <c r="C9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:5" ht="30">
+    <row r="10" spans="1:5">
       <c r="A10" s="18">
         <v>8</v>
       </c>
@@ -3550,7 +4350,9 @@
       <c r="C10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="30">
@@ -3563,10 +4365,12 @@
       <c r="C11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" ht="30">
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="18">
         <v>10</v>
       </c>
@@ -3576,10 +4380,12 @@
       <c r="C12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="30">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -3589,8 +4395,12 @@
       <c r="C13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="30">
       <c r="A14" s="18">
@@ -3602,10 +4412,12 @@
       <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="30">
+    <row r="15" spans="1:5" ht="75">
       <c r="A15" s="16">
         <v>13</v>
       </c>
@@ -3615,8 +4427,12 @@
       <c r="C15" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="30">
       <c r="A16" s="18">
@@ -3628,10 +4444,12 @@
       <c r="C16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="30">
+    <row r="17" spans="1:5" ht="105">
       <c r="A17" s="16">
         <v>15</v>
       </c>
@@ -3641,8 +4459,12 @@
       <c r="C17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="30">
       <c r="A18" s="18">
@@ -3654,10 +4476,12 @@
       <c r="C18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" ht="45">
+    <row r="19" spans="1:5" ht="30">
       <c r="A19" s="16">
         <v>17</v>
       </c>
@@ -3667,8 +4491,10 @@
       <c r="C19" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5" ht="45">
       <c r="A20" s="18">
@@ -3680,7 +4506,9 @@
       <c r="C20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="30">
@@ -3693,10 +4521,12 @@
       <c r="C21" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="10">
+        <v>1</v>
+      </c>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="1:5" ht="45">
+    <row r="22" spans="1:5" ht="30">
       <c r="A22" s="18">
         <v>20</v>
       </c>
@@ -3706,10 +4536,12 @@
       <c r="C22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" ht="45">
+    <row r="23" spans="1:5" ht="30">
       <c r="A23" s="16">
         <v>21</v>
       </c>
@@ -3719,7 +4551,9 @@
       <c r="C23" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" ht="45">
@@ -3732,7 +4566,9 @@
       <c r="C24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
       <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" ht="30">
@@ -3745,7 +4581,9 @@
       <c r="C25" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
       <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:5" ht="30">
@@ -3758,7 +4596,9 @@
       <c r="C26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" ht="45">
@@ -3771,7 +4611,9 @@
       <c r="C27" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
       <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" ht="30">
@@ -3784,7 +4626,9 @@
       <c r="C28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
       <c r="E28" s="21"/>
     </row>
     <row r="29" spans="1:5" ht="45">
@@ -3797,8 +4641,10 @@
       <c r="C29" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="23"/>
+      <c r="D29" s="10">
+        <v>1</v>
+      </c>
+      <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5" ht="30">
       <c r="A30" s="18">
@@ -3810,7 +4656,9 @@
       <c r="C30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="9"/>
+      <c r="D30" s="9">
+        <v>1</v>
+      </c>
       <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:5" ht="30">
@@ -3823,7 +4671,9 @@
       <c r="C31" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="10">
+        <v>1</v>
+      </c>
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" ht="30">
@@ -3836,10 +4686,12 @@
       <c r="C32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="9"/>
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="30">
       <c r="A33" s="16">
         <v>31</v>
       </c>
@@ -3850,7 +4702,9 @@
         <v>62</v>
       </c>
       <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
+      <c r="E33" s="22" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:D33">

--- a/documents/project management/Test/Durchlauf 2/Abnahmetest_Go Happy_gesamt.xlsx
+++ b/documents/project management/Test/Durchlauf 2/Abnahmetest_Go Happy_gesamt.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="89">
   <si>
     <t>ID</t>
   </si>
@@ -286,9 +286,6 @@
   </si>
   <si>
     <t>Über Button "kopieren" wird Link nicht in Zwischenspeicher kopiert. Manuelles kopieren des Llinks aus dem Textfeld ist möglich.</t>
-  </si>
-  <si>
-    <t>Ergebnis wird morgen nachgetragen</t>
   </si>
   <si>
     <t>Abnahmetest durch das Team "Design"</t>
@@ -856,73 +853,6 @@
   </cellStyles>
   <dxfs count="34">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1096,6 +1026,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -1103,12 +1039,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -1323,6 +1253,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -1330,12 +1266,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -1463,9 +1393,76 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
@@ -1489,68 +1486,68 @@
     <tableColumn id="1" name="ID" dataDxfId="33"/>
     <tableColumn id="2" name="Testszenario" dataDxfId="32"/>
     <tableColumn id="3" name="Erwartungen" dataDxfId="31"/>
-    <tableColumn id="4" name="Ergebnis Backend" dataDxfId="5">
+    <tableColumn id="4" name="Ergebnis Backend" dataDxfId="30">
       <calculatedColumnFormula>Tabelle13[[#This Row],[Ergebnis Backend]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Kommentar Backend" dataDxfId="4">
+    <tableColumn id="5" name="Kommentar Backend" dataDxfId="29">
       <calculatedColumnFormula>Tabelle13[[#This Row],[Kommentar Backend]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Ergebnis Frontend" dataDxfId="3">
+    <tableColumn id="7" name="Ergebnis Frontend" dataDxfId="28">
       <calculatedColumnFormula>Tabelle147[[#This Row],[Ergebnis Frontend]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Kommentar Frontend" dataDxfId="2">
+    <tableColumn id="8" name="Kommentar Frontend" dataDxfId="27">
       <calculatedColumnFormula>Tabelle147[[#This Row],[Kommentar Frontend]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Ergebnis Design" dataDxfId="1">
+    <tableColumn id="9" name="Ergebnis Design" dataDxfId="26">
       <calculatedColumnFormula>Tabelle146[[#This Row],[Ergebnis Design]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Kommentar Design" dataDxfId="0">
+    <tableColumn id="10" name="Kommentar Design" dataDxfId="25">
       <calculatedColumnFormula>Tabelle146[[#This Row],[Kommentar Design]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Ergebnis Überarbeitung" dataDxfId="30"/>
-    <tableColumn id="12" name="Kommentar Überarbeitung" dataDxfId="29"/>
+    <tableColumn id="11" name="Ergebnis Überarbeitung" dataDxfId="24"/>
+    <tableColumn id="12" name="Kommentar Überarbeitung" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle13" displayName="Tabelle13" ref="A2:E33" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="22" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle13" displayName="Tabelle13" ref="A2:E33" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20">
   <autoFilter ref="A2:E33"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID" dataDxfId="28"/>
-    <tableColumn id="2" name="Testszenario" dataDxfId="27"/>
-    <tableColumn id="3" name="Erwartungen" dataDxfId="26"/>
+    <tableColumn id="1" name="ID" dataDxfId="19"/>
+    <tableColumn id="2" name="Testszenario" dataDxfId="18"/>
+    <tableColumn id="3" name="Erwartungen" dataDxfId="17"/>
     <tableColumn id="4" name="Ergebnis Backend"/>
-    <tableColumn id="5" name="Kommentar Backend" dataDxfId="25"/>
+    <tableColumn id="5" name="Kommentar Backend" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle147" displayName="Tabelle147" ref="A2:E33" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle147" displayName="Tabelle147" ref="A2:E33" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="A2:E33"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID" dataDxfId="21"/>
-    <tableColumn id="2" name="Testszenario" dataDxfId="20"/>
-    <tableColumn id="3" name="Erwartungen" dataDxfId="19"/>
-    <tableColumn id="4" name="Ergebnis Frontend" dataDxfId="18"/>
-    <tableColumn id="5" name="Kommentar Frontend" dataDxfId="17"/>
+    <tableColumn id="1" name="ID" dataDxfId="12"/>
+    <tableColumn id="2" name="Testszenario" dataDxfId="11"/>
+    <tableColumn id="3" name="Erwartungen" dataDxfId="10"/>
+    <tableColumn id="4" name="Ergebnis Frontend" dataDxfId="9"/>
+    <tableColumn id="5" name="Kommentar Frontend" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle146" displayName="Tabelle146" ref="A2:E33" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle146" displayName="Tabelle146" ref="A2:E33" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="A2:E33"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID" dataDxfId="13"/>
-    <tableColumn id="2" name="Testszenario" dataDxfId="12"/>
-    <tableColumn id="3" name="Erwartungen" dataDxfId="11"/>
-    <tableColumn id="4" name="Ergebnis Design" dataDxfId="10"/>
-    <tableColumn id="5" name="Kommentar Design" dataDxfId="9"/>
+    <tableColumn id="1" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" name="Testszenario" dataDxfId="3"/>
+    <tableColumn id="3" name="Erwartungen" dataDxfId="2"/>
+    <tableColumn id="4" name="Ergebnis Design" dataDxfId="1"/>
+    <tableColumn id="5" name="Kommentar Design" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1880,8 +1877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1973,7 +1970,9 @@
         <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
         <v>0</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="60">
@@ -2010,7 +2009,9 @@
         <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
         <v>Ich konnte den Fehlerfall nicht nachstellen.</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="105">
@@ -2047,7 +2048,9 @@
         <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
         <v>0</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="60">
@@ -2084,7 +2087,9 @@
         <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
         <v>Es wird mir jeden Wochentag diegleiche Route angezeigt.</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="45">
@@ -2121,7 +2126,9 @@
         <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
         <v>0</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="90">
@@ -2158,7 +2165,9 @@
         <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
         <v>0</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="60">
@@ -2195,7 +2204,9 @@
         <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
         <v>0</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="30">
@@ -2232,7 +2243,9 @@
         <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
         <v>0</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="75">
@@ -2269,7 +2282,9 @@
         <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
         <v>0</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="30">
@@ -2306,7 +2321,9 @@
         <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
         <v>0</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="30">
@@ -2343,7 +2360,9 @@
         <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
         <v>Es wird nur die Freitagsroute angezeigt.</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="30">
@@ -2380,7 +2399,9 @@
         <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
         <v>0</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="45">
@@ -2417,6 +2438,9 @@
         <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
         <v xml:space="preserve">Umlaute können (teilw.) nicht richtig angezeigt werden. Bsp: beim Sausalitos "Jumbo Cocktail f??r 5???" </v>
       </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="30">
       <c r="A16" s="13">
@@ -2452,7 +2476,9 @@
         <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
         <v>0</v>
       </c>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="60">
@@ -2489,7 +2515,9 @@
         <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
         <v>Über Button "kopieren" wird Link nicht in Zwischenspeicher kopiert. Manuelles kopieren des Llinks aus dem Textfeld ist möglich.</v>
       </c>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" ht="45">
@@ -2526,7 +2554,9 @@
         <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
         <v>0</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" ht="45">
@@ -2563,7 +2593,9 @@
         <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
         <v>0</v>
       </c>
-      <c r="J19" s="1"/>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" ht="45">
@@ -2600,7 +2632,9 @@
         <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
         <v>0</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" ht="30">
@@ -2637,7 +2671,9 @@
         <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
         <v>0</v>
       </c>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="45">
@@ -2674,7 +2710,9 @@
         <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
         <v>0</v>
       </c>
-      <c r="J22" s="1"/>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="60">
@@ -2711,7 +2749,9 @@
         <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
         <v>0</v>
       </c>
-      <c r="J23" s="1"/>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="45">
@@ -2748,7 +2788,9 @@
         <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
         <v>0</v>
       </c>
-      <c r="J24" s="1"/>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="45">
@@ -2785,7 +2827,9 @@
         <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
         <v>0</v>
       </c>
-      <c r="J25" s="1"/>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" ht="45">
@@ -2822,7 +2866,9 @@
         <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
         <v>0</v>
       </c>
-      <c r="J26" s="1"/>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" ht="60">
@@ -2859,7 +2905,9 @@
         <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
         <v>0</v>
       </c>
-      <c r="J27" s="1"/>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="30">
@@ -2896,7 +2944,9 @@
         <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
         <v>0</v>
       </c>
-      <c r="J28" s="1"/>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" ht="45">
@@ -2933,7 +2983,9 @@
         <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
         <v>0</v>
       </c>
-      <c r="J29" s="1"/>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" ht="30">
@@ -2970,7 +3022,9 @@
         <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
         <v>0</v>
       </c>
-      <c r="J30" s="1"/>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="30">
@@ -3007,7 +3061,9 @@
         <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
         <v>0</v>
       </c>
-      <c r="J31" s="1"/>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="45">
@@ -3044,7 +3100,9 @@
         <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
         <v>0</v>
       </c>
-      <c r="J32" s="1"/>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="30">
@@ -3074,18 +3132,16 @@
         <v>0</v>
       </c>
       <c r="H33" s="1">
-        <f>Tabelle146[[#This Row],[Ergebnis Design]]</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="1" t="str">
-        <f>Tabelle146[[#This Row],[Kommentar Design]]</f>
-        <v>Ergebnis wird morgen nachgetragen</v>
-      </c>
-      <c r="J33" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
       <c r="K33" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J3:J33 D3:D33 F3:F33 H3:H33">
+  <conditionalFormatting sqref="D3:D33 F3:F33 H3:H33 J3:J33">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4198,8 +4254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4213,7 +4269,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4691,7 +4747,7 @@
       </c>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:5" ht="30">
+    <row r="33" spans="1:5">
       <c r="A33" s="16">
         <v>31</v>
       </c>
@@ -4701,10 +4757,10 @@
       <c r="C33" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="22" t="s">
-        <v>88</v>
-      </c>
+      <c r="D33" s="10">
+        <v>1</v>
+      </c>
+      <c r="E33" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:D33">
